--- a/PM-Sheets/PM-Sheet_BAUX(4).xlsx
+++ b/PM-Sheets/PM-Sheet_BAUX(4).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armin\Desktop\PM-Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armin\Desktop\project-proposal-baux\PM-Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29B9148-98AA-445F-A13F-54D70B897016}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC477CF8-B7BE-477D-9EEB-27CE8FDE40C6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Planung</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>Hamzic</t>
-  </si>
-  <si>
-    <t>in process</t>
   </si>
   <si>
     <t>done</t>
@@ -283,6 +280,9 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFill="1">
       <alignment horizontal="left"/>
@@ -292,9 +292,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyFill="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -882,8 +879,8 @@
   </sheetPr>
   <dimension ref="B1:I16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -899,7 +896,7 @@
   <sheetData>
     <row r="1" spans="2:9" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -907,37 +904,37 @@
     </row>
     <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="8">
+      <c r="C4" s="10"/>
+      <c r="D4" s="9">
         <v>43538</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
@@ -1010,16 +1007,16 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -1028,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1036,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>18</v>
@@ -1045,7 +1042,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1054,15 +1051,15 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>18</v>
@@ -1073,8 +1070,12 @@
       <c r="F14" t="s">
         <v>19</v>
       </c>
-      <c r="G14"/>
-      <c r="H14"/>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
       <c r="I14" t="s">
         <v>18</v>
       </c>
@@ -1084,25 +1085,25 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="6">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
